--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il15</t>
   </si>
   <si>
     <t>Il2ra</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H2">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J2">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N2">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O2">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P2">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q2">
-        <v>0.7243881798366981</v>
+        <v>1.698636262535111</v>
       </c>
       <c r="R2">
-        <v>0.7243881798366981</v>
+        <v>15.287726362816</v>
       </c>
       <c r="S2">
-        <v>0.006191485885075914</v>
+        <v>0.01029936625354121</v>
       </c>
       <c r="T2">
-        <v>0.006191485885075914</v>
+        <v>0.01029936625354121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H3">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J3">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N3">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O3">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P3">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q3">
-        <v>3.12714848009895</v>
+        <v>0.4840896918542223</v>
       </c>
       <c r="R3">
-        <v>3.12714848009895</v>
+        <v>4.356807226688001</v>
       </c>
       <c r="S3">
-        <v>0.02672834291613378</v>
+        <v>0.002935188154131075</v>
       </c>
       <c r="T3">
-        <v>0.02672834291613378</v>
+        <v>0.002935188154131075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,805 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.62287542855515</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H4">
-        <v>4.62287542855515</v>
+        <v>16.078144</v>
       </c>
       <c r="I4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J4">
-        <v>0.06734291724577576</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.871192463688427</v>
+        <v>0.1340643333333333</v>
       </c>
       <c r="N4">
-        <v>0.871192463688427</v>
+        <v>0.402193</v>
       </c>
       <c r="O4">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988301</v>
       </c>
       <c r="P4">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988302</v>
       </c>
       <c r="Q4">
-        <v>4.027414233927654</v>
+        <v>0.7185018855324444</v>
       </c>
       <c r="R4">
-        <v>4.027414233927654</v>
+        <v>6.466516969792</v>
       </c>
       <c r="S4">
-        <v>0.03442308844456608</v>
+        <v>0.004356503058467838</v>
       </c>
       <c r="T4">
-        <v>0.03442308844456608</v>
+        <v>0.004356503058467837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.33933430490002</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H5">
-        <v>2.33933430490002</v>
+        <v>16.078144</v>
       </c>
       <c r="I5">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J5">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156696452463808</v>
+        <v>0.7546816666666668</v>
       </c>
       <c r="N5">
-        <v>0.156696452463808</v>
+        <v>2.264045</v>
       </c>
       <c r="O5">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="P5">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="Q5">
-        <v>0.3665653867047213</v>
+        <v>4.044626836942224</v>
       </c>
       <c r="R5">
-        <v>0.3665653867047213</v>
+        <v>36.40164153248001</v>
       </c>
       <c r="S5">
-        <v>0.003133105261672433</v>
+        <v>0.02452384543492507</v>
       </c>
       <c r="T5">
-        <v>0.003133105261672433</v>
+        <v>0.02452384543492506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.33933430490002</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H6">
-        <v>2.33933430490002</v>
+        <v>16.078144</v>
       </c>
       <c r="I6">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J6">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.676450951021261</v>
+        <v>0.01539166666666667</v>
       </c>
       <c r="N6">
-        <v>0.676450951021261</v>
+        <v>0.046175</v>
       </c>
       <c r="O6">
-        <v>0.3968990950983843</v>
+        <v>0.00682433100495682</v>
       </c>
       <c r="P6">
-        <v>0.3968990950983843</v>
+        <v>0.006824331004956822</v>
       </c>
       <c r="Q6">
-        <v>1.582444915306279</v>
+        <v>0.08248981102222223</v>
       </c>
       <c r="R6">
-        <v>1.582444915306279</v>
+        <v>0.7424082992000001</v>
       </c>
       <c r="S6">
-        <v>0.01352546276947494</v>
+        <v>0.00050016168537183</v>
       </c>
       <c r="T6">
-        <v>0.01352546276947494</v>
+        <v>0.00050016168537183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.33933430490002</v>
+        <v>5.359381333333334</v>
       </c>
       <c r="H7">
-        <v>2.33933430490002</v>
+        <v>16.078144</v>
       </c>
       <c r="I7">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485919</v>
       </c>
       <c r="J7">
-        <v>0.03407783725513965</v>
+        <v>0.07329094749485918</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.871192463688427</v>
+        <v>0.9440006666666667</v>
       </c>
       <c r="N7">
-        <v>0.871192463688427</v>
+        <v>2.832002</v>
       </c>
       <c r="O7">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="P7">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="Q7">
-        <v>2.038010416476702</v>
+        <v>5.059259551587557</v>
       </c>
       <c r="R7">
-        <v>2.038010416476702</v>
+        <v>45.53333596428801</v>
       </c>
       <c r="S7">
-        <v>0.01741926922399228</v>
+        <v>0.03067588290842216</v>
       </c>
       <c r="T7">
-        <v>0.01741926922399228</v>
+        <v>0.03067588290842216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.2738770325541</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H8">
-        <v>17.2738770325541</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J8">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N8">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O8">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P8">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q8">
-        <v>2.706755251297278</v>
+        <v>0.7641367968574445</v>
       </c>
       <c r="R8">
-        <v>2.706755251297278</v>
+        <v>6.877231171717001</v>
       </c>
       <c r="S8">
-        <v>0.02313516067661433</v>
+        <v>0.004633201888023371</v>
       </c>
       <c r="T8">
-        <v>0.02313516067661433</v>
+        <v>0.004633201888023371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.2738770325541</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H9">
-        <v>17.2738770325541</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J9">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N9">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O9">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P9">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q9">
-        <v>11.68493054649554</v>
+        <v>0.2177692509478889</v>
       </c>
       <c r="R9">
-        <v>11.68493054649554</v>
+        <v>1.959923258531</v>
       </c>
       <c r="S9">
-        <v>0.09987336149387338</v>
+        <v>0.001320403504705748</v>
       </c>
       <c r="T9">
-        <v>0.09987336149387338</v>
+        <v>0.001320403504705748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.2738770325541</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H10">
-        <v>17.2738770325541</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J10">
-        <v>0.2516341375611263</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.871192463688427</v>
+        <v>0.1340643333333333</v>
       </c>
       <c r="N10">
-        <v>0.871192463688427</v>
+        <v>0.402193</v>
       </c>
       <c r="O10">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988301</v>
       </c>
       <c r="P10">
-        <v>0.5111612304963717</v>
+        <v>0.05944121623988302</v>
       </c>
       <c r="Q10">
-        <v>15.04887148944174</v>
+        <v>0.3232203041087778</v>
       </c>
       <c r="R10">
-        <v>15.04887148944174</v>
+        <v>2.908982736979</v>
       </c>
       <c r="S10">
-        <v>0.1286256153906386</v>
+        <v>0.001959786427512737</v>
       </c>
       <c r="T10">
-        <v>0.1286256153906386</v>
+        <v>0.001959786427512737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.8283445343831</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H11">
-        <v>18.8283445343831</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J11">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.156696452463808</v>
+        <v>0.7546816666666668</v>
       </c>
       <c r="N11">
-        <v>0.156696452463808</v>
+        <v>2.264045</v>
       </c>
       <c r="O11">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="P11">
-        <v>0.09193967440524399</v>
+        <v>0.3346094746100156</v>
       </c>
       <c r="Q11">
-        <v>2.95033479430416</v>
+        <v>1.819487940903889</v>
       </c>
       <c r="R11">
-        <v>2.95033479430416</v>
+        <v>16.375391468135</v>
       </c>
       <c r="S11">
-        <v>0.02521708214413515</v>
+        <v>0.01103212801385921</v>
       </c>
       <c r="T11">
-        <v>0.02521708214413515</v>
+        <v>0.01103212801385921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.8283445343831</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H12">
-        <v>18.8283445343831</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J12">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.676450951021261</v>
+        <v>0.01539166666666667</v>
       </c>
       <c r="N12">
-        <v>0.676450951021261</v>
+        <v>0.046175</v>
       </c>
       <c r="O12">
-        <v>0.3968990950983843</v>
+        <v>0.00682433100495682</v>
       </c>
       <c r="P12">
-        <v>0.3968990950983843</v>
+        <v>0.006824331004956822</v>
       </c>
       <c r="Q12">
-        <v>12.73645156643941</v>
+        <v>0.03710829761388889</v>
       </c>
       <c r="R12">
-        <v>12.73645156643941</v>
+        <v>0.333974678525</v>
       </c>
       <c r="S12">
-        <v>0.108860915037763</v>
+        <v>0.0002249992871342878</v>
       </c>
       <c r="T12">
-        <v>0.108860915037763</v>
+        <v>0.0002249992871342879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.8283445343831</v>
+        <v>2.410934333333334</v>
       </c>
       <c r="H13">
-        <v>18.8283445343831</v>
+        <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="J13">
-        <v>0.2742785669762697</v>
+        <v>0.03297016029422675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.871192463688427</v>
+        <v>0.9440006666666667</v>
       </c>
       <c r="N13">
-        <v>0.871192463688427</v>
+        <v>2.832002</v>
       </c>
       <c r="O13">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="P13">
-        <v>0.5111612304963717</v>
+        <v>0.4185494110384348</v>
       </c>
       <c r="Q13">
-        <v>16.40311186208374</v>
+        <v>2.275923617956222</v>
       </c>
       <c r="R13">
-        <v>16.40311186208374</v>
+        <v>20.483312561606</v>
       </c>
       <c r="S13">
-        <v>0.1402005697943715</v>
+        <v>0.01379964117299139</v>
       </c>
       <c r="T13">
-        <v>0.1402005697943715</v>
+        <v>0.01379964117299139</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.5823636057955</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H14">
-        <v>25.5823636057955</v>
+        <v>57.974423</v>
       </c>
       <c r="I14">
-        <v>0.3726665409616887</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J14">
-        <v>0.3726665409616887</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.156696452463808</v>
+        <v>0.3169463333333333</v>
       </c>
       <c r="N14">
-        <v>0.156696452463808</v>
+        <v>0.950839</v>
       </c>
       <c r="O14">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="P14">
-        <v>0.09193967440524399</v>
+        <v>0.1405271265494778</v>
       </c>
       <c r="Q14">
-        <v>4.008665622667387</v>
+        <v>6.124926932321889</v>
       </c>
       <c r="R14">
-        <v>4.008665622667387</v>
+        <v>55.124342390897</v>
       </c>
       <c r="S14">
-        <v>0.03426284043774618</v>
+        <v>0.03713735962401651</v>
       </c>
       <c r="T14">
-        <v>0.03426284043774618</v>
+        <v>0.03713735962401651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.5823636057955</v>
+        <v>19.32480766666667</v>
       </c>
       <c r="H15">
-        <v>25.5823636057955</v>
+        <v>57.974423</v>
       </c>
       <c r="I15">
-        <v>0.3726665409616887</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="J15">
-        <v>0.3726665409616887</v>
+        <v>0.2642718209351624</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.676450951021261</v>
+        <v>0.09032566666666668</v>
       </c>
       <c r="N15">
-        <v>0.676450951021261</v>
+        <v>0.270977</v>
       </c>
       <c r="O15">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723193</v>
       </c>
       <c r="P15">
-        <v>0.3968990950983843</v>
+        <v>0.04004844055723194</v>
       </c>
       <c r="Q15">
-        <v>17.30521419051206</v>
+        <v>1.745526135696778</v>
       </c>
       <c r="R15">
-        <v>17.30521419051206</v>
+        <v>15.709735221271</v>
       </c>
       <c r="S15">
-        <v>0.1479110128811392</v>
+        <v>0.01058367431167329</v>
       </c>
       <c r="T15">
-        <v>0.1479110128811392</v>
+        <v>0.0105836743116733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.32480766666667</v>
+      </c>
+      <c r="H16">
+        <v>57.974423</v>
+      </c>
+      <c r="I16">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="J16">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.402193</v>
+      </c>
+      <c r="O16">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P16">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q16">
+        <v>2.590767456626555</v>
+      </c>
+      <c r="R16">
+        <v>23.316907109639</v>
+      </c>
+      <c r="S16">
+        <v>0.01570863845431463</v>
+      </c>
+      <c r="T16">
+        <v>0.01570863845431463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.32480766666667</v>
+      </c>
+      <c r="H17">
+        <v>57.974423</v>
+      </c>
+      <c r="I17">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="J17">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N17">
+        <v>2.264045</v>
+      </c>
+      <c r="O17">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P17">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q17">
+        <v>14.58407805789278</v>
+      </c>
+      <c r="R17">
+        <v>131.256702521035</v>
+      </c>
+      <c r="S17">
+        <v>0.08842785515734682</v>
+      </c>
+      <c r="T17">
+        <v>0.08842785515734682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.32480766666667</v>
+      </c>
+      <c r="H18">
+        <v>57.974423</v>
+      </c>
+      <c r="I18">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="J18">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.046175</v>
+      </c>
+      <c r="O18">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P18">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q18">
+        <v>0.2974409980027778</v>
+      </c>
+      <c r="R18">
+        <v>2.676968982025</v>
+      </c>
+      <c r="S18">
+        <v>0.001803478381344226</v>
+      </c>
+      <c r="T18">
+        <v>0.001803478381344226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>25.5823636057955</v>
-      </c>
-      <c r="H16">
-        <v>25.5823636057955</v>
-      </c>
-      <c r="I16">
-        <v>0.3726665409616887</v>
-      </c>
-      <c r="J16">
-        <v>0.3726665409616887</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.871192463688427</v>
-      </c>
-      <c r="N16">
-        <v>0.871192463688427</v>
-      </c>
-      <c r="O16">
-        <v>0.5111612304963717</v>
-      </c>
-      <c r="P16">
-        <v>0.5111612304963717</v>
-      </c>
-      <c r="Q16">
-        <v>22.28716237670613</v>
-      </c>
-      <c r="R16">
-        <v>22.28716237670613</v>
-      </c>
-      <c r="S16">
-        <v>0.1904926876428033</v>
-      </c>
-      <c r="T16">
-        <v>0.1904926876428033</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.32480766666667</v>
+      </c>
+      <c r="H19">
+        <v>57.974423</v>
+      </c>
+      <c r="I19">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="J19">
+        <v>0.2642718209351624</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.832002</v>
+      </c>
+      <c r="O19">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P19">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q19">
+        <v>18.24263132053845</v>
+      </c>
+      <c r="R19">
+        <v>164.183681884846</v>
+      </c>
+      <c r="S19">
+        <v>0.1106108150064669</v>
+      </c>
+      <c r="T19">
+        <v>0.110610815006467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H20">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J20">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.950839</v>
+      </c>
+      <c r="O20">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P20">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q20">
+        <v>6.049255678292223</v>
+      </c>
+      <c r="R20">
+        <v>54.44330110463001</v>
+      </c>
+      <c r="S20">
+        <v>0.03667854099562274</v>
+      </c>
+      <c r="T20">
+        <v>0.03667854099562274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H21">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J21">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N21">
+        <v>0.270977</v>
+      </c>
+      <c r="O21">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P21">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q21">
+        <v>1.723960792454445</v>
+      </c>
+      <c r="R21">
+        <v>15.51564713209</v>
+      </c>
+      <c r="S21">
+        <v>0.01045291684856307</v>
+      </c>
+      <c r="T21">
+        <v>0.01045291684856307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H22">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J22">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.402193</v>
+      </c>
+      <c r="O22">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P22">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q22">
+        <v>2.558759462978889</v>
+      </c>
+      <c r="R22">
+        <v>23.02883516681</v>
+      </c>
+      <c r="S22">
+        <v>0.01551456391529217</v>
+      </c>
+      <c r="T22">
+        <v>0.01551456391529217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H23">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J23">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.264045</v>
+      </c>
+      <c r="O23">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P23">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q23">
+        <v>14.40389705529445</v>
+      </c>
+      <c r="R23">
+        <v>129.63507349765</v>
+      </c>
+      <c r="S23">
+        <v>0.0873353610321355</v>
+      </c>
+      <c r="T23">
+        <v>0.0873353610321355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H24">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J24">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.046175</v>
+      </c>
+      <c r="O24">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P24">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q24">
+        <v>0.2937662221944445</v>
+      </c>
+      <c r="R24">
+        <v>2.64389599975</v>
+      </c>
+      <c r="S24">
+        <v>0.001781197059095052</v>
+      </c>
+      <c r="T24">
+        <v>0.001781197059095052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>19.08605666666667</v>
+      </c>
+      <c r="H25">
+        <v>57.25817000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="J25">
+        <v>0.2610068382968657</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.832002</v>
+      </c>
+      <c r="O25">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P25">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q25">
+        <v>18.01725021737111</v>
+      </c>
+      <c r="R25">
+        <v>162.15525195634</v>
+      </c>
+      <c r="S25">
+        <v>0.1092442584461571</v>
+      </c>
+      <c r="T25">
+        <v>0.1092442584461571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>26.534778</v>
+      </c>
+      <c r="H26">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I26">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J26">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.950839</v>
+      </c>
+      <c r="O26">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P26">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q26">
+        <v>8.410100592914</v>
+      </c>
+      <c r="R26">
+        <v>75.690905336226</v>
+      </c>
+      <c r="S26">
+        <v>0.0509930867166772</v>
+      </c>
+      <c r="T26">
+        <v>0.05099308671667719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>26.534778</v>
+      </c>
+      <c r="H27">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I27">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J27">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N27">
+        <v>0.270977</v>
+      </c>
+      <c r="O27">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P27">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q27">
+        <v>2.396771512702</v>
+      </c>
+      <c r="R27">
+        <v>21.570943614318</v>
+      </c>
+      <c r="S27">
+        <v>0.01453237999201236</v>
+      </c>
+      <c r="T27">
+        <v>0.01453237999201236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>26.534778</v>
+      </c>
+      <c r="H28">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I28">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J28">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.402193</v>
+      </c>
+      <c r="O28">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P28">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q28">
+        <v>3.557367322717999</v>
+      </c>
+      <c r="R28">
+        <v>32.01630590446199</v>
+      </c>
+      <c r="S28">
+        <v>0.02156943765016007</v>
+      </c>
+      <c r="T28">
+        <v>0.02156943765016007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>26.534778</v>
+      </c>
+      <c r="H29">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I29">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J29">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N29">
+        <v>2.264045</v>
+      </c>
+      <c r="O29">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P29">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q29">
+        <v>20.02531048567</v>
+      </c>
+      <c r="R29">
+        <v>180.22779437103</v>
+      </c>
+      <c r="S29">
+        <v>0.1214197598283826</v>
+      </c>
+      <c r="T29">
+        <v>0.1214197598283825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>26.534778</v>
+      </c>
+      <c r="H30">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I30">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J30">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.046175</v>
+      </c>
+      <c r="O30">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P30">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q30">
+        <v>0.40841445805</v>
+      </c>
+      <c r="R30">
+        <v>3.67573012245</v>
+      </c>
+      <c r="S30">
+        <v>0.002476345395111653</v>
+      </c>
+      <c r="T30">
+        <v>0.002476345395111653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>26.534778</v>
+      </c>
+      <c r="H31">
+        <v>79.60433399999999</v>
+      </c>
+      <c r="I31">
+        <v>0.3628700591036648</v>
+      </c>
+      <c r="J31">
+        <v>0.3628700591036647</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N31">
+        <v>2.832002</v>
+      </c>
+      <c r="O31">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P31">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q31">
+        <v>25.048848121852</v>
+      </c>
+      <c r="R31">
+        <v>225.439633096668</v>
+      </c>
+      <c r="S31">
+        <v>0.1518790495213209</v>
+      </c>
+      <c r="T31">
+        <v>0.1518790495213209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.40878</v>
+      </c>
+      <c r="H32">
+        <v>1.22634</v>
+      </c>
+      <c r="I32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J32">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3169463333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.950839</v>
+      </c>
+      <c r="O32">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="P32">
+        <v>0.1405271265494778</v>
+      </c>
+      <c r="Q32">
+        <v>0.12956132214</v>
+      </c>
+      <c r="R32">
+        <v>1.16605189926</v>
+      </c>
+      <c r="S32">
+        <v>0.0007855710715968041</v>
+      </c>
+      <c r="T32">
+        <v>0.0007855710715968041</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.40878</v>
+      </c>
+      <c r="H33">
+        <v>1.22634</v>
+      </c>
+      <c r="I33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J33">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.09032566666666668</v>
+      </c>
+      <c r="N33">
+        <v>0.270977</v>
+      </c>
+      <c r="O33">
+        <v>0.04004844055723193</v>
+      </c>
+      <c r="P33">
+        <v>0.04004844055723194</v>
+      </c>
+      <c r="Q33">
+        <v>0.03692332602</v>
+      </c>
+      <c r="R33">
+        <v>0.33230993418</v>
+      </c>
+      <c r="S33">
+        <v>0.0002238777461463899</v>
+      </c>
+      <c r="T33">
+        <v>0.0002238777461463899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.40878</v>
+      </c>
+      <c r="H34">
+        <v>1.22634</v>
+      </c>
+      <c r="I34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J34">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1340643333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.402193</v>
+      </c>
+      <c r="O34">
+        <v>0.05944121623988301</v>
+      </c>
+      <c r="P34">
+        <v>0.05944121623988302</v>
+      </c>
+      <c r="Q34">
+        <v>0.05480281817999999</v>
+      </c>
+      <c r="R34">
+        <v>0.49322536362</v>
+      </c>
+      <c r="S34">
+        <v>0.0003322867341355723</v>
+      </c>
+      <c r="T34">
+        <v>0.0003322867341355723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.40878</v>
+      </c>
+      <c r="H35">
+        <v>1.22634</v>
+      </c>
+      <c r="I35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J35">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7546816666666668</v>
+      </c>
+      <c r="N35">
+        <v>2.264045</v>
+      </c>
+      <c r="O35">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="P35">
+        <v>0.3346094746100156</v>
+      </c>
+      <c r="Q35">
+        <v>0.3084987717000001</v>
+      </c>
+      <c r="R35">
+        <v>2.776488945300001</v>
+      </c>
+      <c r="S35">
+        <v>0.001870525143366424</v>
+      </c>
+      <c r="T35">
+        <v>0.001870525143366424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.40878</v>
+      </c>
+      <c r="H36">
+        <v>1.22634</v>
+      </c>
+      <c r="I36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J36">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.01539166666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.046175</v>
+      </c>
+      <c r="O36">
+        <v>0.00682433100495682</v>
+      </c>
+      <c r="P36">
+        <v>0.006824331004956822</v>
+      </c>
+      <c r="Q36">
+        <v>0.0062918055</v>
+      </c>
+      <c r="R36">
+        <v>0.0566262495</v>
+      </c>
+      <c r="S36">
+        <v>3.814919689977213E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.814919689977213E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.40878</v>
+      </c>
+      <c r="H37">
+        <v>1.22634</v>
+      </c>
+      <c r="I37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="J37">
+        <v>0.005590173875221269</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.9440006666666667</v>
+      </c>
+      <c r="N37">
+        <v>2.832002</v>
+      </c>
+      <c r="O37">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="P37">
+        <v>0.4185494110384348</v>
+      </c>
+      <c r="Q37">
+        <v>0.38588859252</v>
+      </c>
+      <c r="R37">
+        <v>3.47299733268</v>
+      </c>
+      <c r="S37">
+        <v>0.002339763983076307</v>
+      </c>
+      <c r="T37">
+        <v>0.002339763983076307</v>
       </c>
     </row>
   </sheetData>
